--- a/src/tests/retriever_eval_filtered_dataset_single_pdf.xlsx
+++ b/src/tests/retriever_eval_filtered_dataset_single_pdf.xlsx
@@ -574,7 +574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MSMARCO</t>
+          <t>mixedbread-ai/mxbai-embed-large-v1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92.31</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>92.31</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
         <v>100</v>
@@ -606,7 +606,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mxbai embed large</t>
+          <t>MSMARCO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -616,23 +616,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'instruction': 'Represent this passage for retrieval in response to relevant technical questions.\nQuery:', 'query_instruction': None, 'load_in_8bit': False, 'trust_remote_code': False}</t>
+          <t>{'instruction': None, 'query_instruction': None, 'load_in_8bit': False, 'trust_remote_code': False}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76.92</v>
+        <v>92.31</v>
       </c>
       <c r="E6" t="n">
-        <v>84.62</v>
+        <v>92.31</v>
       </c>
       <c r="F6" t="n">
-        <v>92.31</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>92.31</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>92.31</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
